--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H2">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I2">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J2">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3105913333333333</v>
+        <v>0.1255626666666667</v>
       </c>
       <c r="N2">
-        <v>0.931774</v>
+        <v>0.376688</v>
       </c>
       <c r="O2">
-        <v>0.03128659259739168</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="P2">
-        <v>0.03928326902580845</v>
+        <v>0.02907345870642374</v>
       </c>
       <c r="Q2">
-        <v>20.28623287038467</v>
+        <v>7.222446369816891</v>
       </c>
       <c r="R2">
-        <v>182.576095833462</v>
+        <v>65.00201732835201</v>
       </c>
       <c r="S2">
-        <v>0.005575134202448157</v>
+        <v>0.005018801618859513</v>
       </c>
       <c r="T2">
-        <v>0.007389045406239088</v>
+        <v>0.00539554682205572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H3">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I3">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J3">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.393572666666667</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N3">
         <v>10.180718</v>
       </c>
       <c r="O3">
-        <v>0.3418425244908446</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="P3">
-        <v>0.4292155437583476</v>
+        <v>0.7857661629113346</v>
       </c>
       <c r="Q3">
-        <v>221.6507609524593</v>
+        <v>195.2005101336636</v>
       </c>
       <c r="R3">
-        <v>1994.856848572134</v>
+        <v>1756.804591202972</v>
       </c>
       <c r="S3">
-        <v>0.06091484536730967</v>
+        <v>0.135642770620652</v>
       </c>
       <c r="T3">
-        <v>0.08073394146017768</v>
+        <v>0.1458250346470964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H4">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I4">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J4">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1456443333333333</v>
+        <v>0.2723486666666667</v>
       </c>
       <c r="N4">
-        <v>0.436933</v>
+        <v>0.8170460000000001</v>
       </c>
       <c r="O4">
-        <v>0.01467109488283225</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="P4">
-        <v>0.01842094390405137</v>
+        <v>0.06306108275880487</v>
       </c>
       <c r="Q4">
-        <v>9.512740843547665</v>
+        <v>15.66567269643156</v>
       </c>
       <c r="R4">
-        <v>85.61466759192899</v>
+        <v>140.991054267884</v>
       </c>
       <c r="S4">
-        <v>0.00261432505358411</v>
+        <v>0.01088591032228977</v>
       </c>
       <c r="T4">
-        <v>0.003464915072200194</v>
+        <v>0.01170308039749962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H5">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I5">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J5">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0625345</v>
+        <v>0.7670265000000001</v>
       </c>
       <c r="N5">
-        <v>12.125069</v>
+        <v>1.534053</v>
       </c>
       <c r="O5">
-        <v>0.6106933022679266</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="P5">
-        <v>0.5111887082956706</v>
+        <v>0.1184009752075072</v>
       </c>
       <c r="Q5">
-        <v>395.9736588005495</v>
+        <v>44.11986386992701</v>
       </c>
       <c r="R5">
-        <v>2375.841952803297</v>
+        <v>264.7191832195621</v>
       </c>
       <c r="S5">
-        <v>0.1088228801548614</v>
+        <v>0.03065842692022161</v>
       </c>
       <c r="T5">
-        <v>0.09615280679089776</v>
+        <v>0.02197323723881579</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H6">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I6">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J6">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01495533333333333</v>
+        <v>0.01597233333333333</v>
       </c>
       <c r="N6">
-        <v>0.044866</v>
+        <v>0.047917</v>
       </c>
       <c r="O6">
-        <v>0.001506485761004895</v>
+        <v>0.0034916150995138</v>
       </c>
       <c r="P6">
-        <v>0.001891535016121851</v>
+        <v>0.003698320415929645</v>
       </c>
       <c r="Q6">
-        <v>0.9768056674286666</v>
+        <v>0.9187390166464446</v>
       </c>
       <c r="R6">
-        <v>8.791251006857999</v>
+        <v>8.268651149818002</v>
       </c>
       <c r="S6">
-        <v>0.0002684491852391664</v>
+        <v>0.0006384220287635689</v>
       </c>
       <c r="T6">
-        <v>0.0003557911158674989</v>
+        <v>0.0006863463053573353</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I7">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J7">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3105913333333333</v>
+        <v>0.1255626666666667</v>
       </c>
       <c r="N7">
-        <v>0.931774</v>
+        <v>0.376688</v>
       </c>
       <c r="O7">
-        <v>0.03128659259739168</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="P7">
-        <v>0.03928326902580845</v>
+        <v>0.02907345870642374</v>
       </c>
       <c r="Q7">
-        <v>75.47432594983289</v>
+        <v>30.51198347817245</v>
       </c>
       <c r="R7">
-        <v>679.2689335484961</v>
+        <v>274.607851303552</v>
       </c>
       <c r="S7">
-        <v>0.02074212095947684</v>
+        <v>0.02120245471324268</v>
       </c>
       <c r="T7">
-        <v>0.02749072363567073</v>
+        <v>0.02279405440492649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I8">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J8">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.393572666666667</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N8">
         <v>10.180718</v>
       </c>
       <c r="O8">
-        <v>0.3418425244908446</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="P8">
-        <v>0.4292155437583476</v>
+        <v>0.7857661629113346</v>
       </c>
       <c r="Q8">
-        <v>824.6450627891859</v>
+        <v>824.6450627891857</v>
       </c>
       <c r="R8">
-        <v>7421.805565102673</v>
+        <v>7421.805565102672</v>
       </c>
       <c r="S8">
-        <v>0.2266318701856063</v>
+        <v>0.5730371350913607</v>
       </c>
       <c r="T8">
-        <v>0.3003682276503729</v>
+        <v>0.6160531792178522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I9">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J9">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1456443333333333</v>
+        <v>0.2723486666666667</v>
       </c>
       <c r="N9">
-        <v>0.436933</v>
+        <v>0.8170460000000001</v>
       </c>
       <c r="O9">
-        <v>0.01467109488283225</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="P9">
-        <v>0.01842094390405137</v>
+        <v>0.06306108275880487</v>
       </c>
       <c r="Q9">
-        <v>35.39186933767022</v>
+        <v>66.18128013875378</v>
       </c>
       <c r="R9">
-        <v>318.526824039032</v>
+        <v>595.6315212487841</v>
       </c>
       <c r="S9">
-        <v>0.009726518594838548</v>
+        <v>0.04598867182824001</v>
       </c>
       <c r="T9">
-        <v>0.0128911134570234</v>
+        <v>0.04944089266270114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I10">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J10">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.0625345</v>
+        <v>0.7670265000000001</v>
       </c>
       <c r="N10">
-        <v>12.125069</v>
+        <v>1.534053</v>
       </c>
       <c r="O10">
-        <v>0.6106933022679266</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="P10">
-        <v>0.5111887082956706</v>
+        <v>0.1184009752075072</v>
       </c>
       <c r="Q10">
-        <v>1473.208218736863</v>
+        <v>186.389000143252</v>
       </c>
       <c r="R10">
-        <v>8839.249312421176</v>
+        <v>1118.334000859512</v>
       </c>
       <c r="S10">
-        <v>0.4048722885163187</v>
+        <v>0.1295197454931431</v>
       </c>
       <c r="T10">
-        <v>0.3577336574560339</v>
+        <v>0.09282824921962125</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I11">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J11">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01495533333333333</v>
+        <v>0.01597233333333333</v>
       </c>
       <c r="N11">
-        <v>0.044866</v>
+        <v>0.047917</v>
       </c>
       <c r="O11">
-        <v>0.001506485761004895</v>
+        <v>0.0034916150995138</v>
       </c>
       <c r="P11">
-        <v>0.001891535016121851</v>
+        <v>0.003698320415929645</v>
       </c>
       <c r="Q11">
-        <v>3.634176429118222</v>
+        <v>3.881309498374223</v>
       </c>
       <c r="R11">
-        <v>32.707587862064</v>
+        <v>34.931785485368</v>
       </c>
       <c r="S11">
-        <v>0.0009987572082585346</v>
+        <v>0.002697080933012066</v>
       </c>
       <c r="T11">
-        <v>0.001323710263044475</v>
+        <v>0.002899542074398076</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H12">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I12">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J12">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3105913333333333</v>
+        <v>0.1255626666666667</v>
       </c>
       <c r="N12">
-        <v>0.931774</v>
+        <v>0.376688</v>
       </c>
       <c r="O12">
-        <v>0.03128659259739168</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="P12">
-        <v>0.03928326902580845</v>
+        <v>0.02907345870642374</v>
       </c>
       <c r="Q12">
-        <v>0.07216693160444444</v>
+        <v>0.01292814143111111</v>
       </c>
       <c r="R12">
-        <v>0.64950238444</v>
+        <v>0.11635327288</v>
       </c>
       <c r="S12">
-        <v>1.983317115821149E-05</v>
+        <v>8.983628790164376E-06</v>
       </c>
       <c r="T12">
-        <v>2.628604028462379E-05</v>
+        <v>9.658000744072945E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H13">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I13">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J13">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.393572666666667</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N13">
         <v>10.180718</v>
       </c>
       <c r="O13">
-        <v>0.3418425244908446</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="P13">
-        <v>0.4292155437583476</v>
+        <v>0.7857661629113346</v>
       </c>
       <c r="Q13">
-        <v>0.788507921008889</v>
+        <v>0.3494078977144444</v>
       </c>
       <c r="R13">
-        <v>7.096571289080001</v>
+        <v>3.14467107943</v>
       </c>
       <c r="S13">
-        <v>0.0002167005331845325</v>
+        <v>0.0002427998538030005</v>
       </c>
       <c r="T13">
-        <v>0.0002872056566017023</v>
+        <v>0.0002610260534426284</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H14">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I14">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J14">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1456443333333333</v>
+        <v>0.2723486666666667</v>
       </c>
       <c r="N14">
-        <v>0.436933</v>
+        <v>0.8170460000000001</v>
       </c>
       <c r="O14">
-        <v>0.01467109488283225</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="P14">
-        <v>0.01842094390405137</v>
+        <v>0.06306108275880487</v>
       </c>
       <c r="Q14">
-        <v>0.03384094633111111</v>
+        <v>0.02804147263444445</v>
       </c>
       <c r="R14">
-        <v>0.30456851698</v>
+        <v>0.25237325371</v>
       </c>
       <c r="S14">
-        <v>9.300288453713905E-06</v>
+        <v>1.948572284885274E-05</v>
       </c>
       <c r="T14">
-        <v>1.232620618270259E-05</v>
+        <v>2.094845303259414E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H15">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I15">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J15">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.0625345</v>
+        <v>0.7670265000000001</v>
       </c>
       <c r="N15">
-        <v>12.125069</v>
+        <v>1.534053</v>
       </c>
       <c r="O15">
-        <v>0.6106933022679266</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="P15">
-        <v>0.5111887082956706</v>
+        <v>0.1184009752075072</v>
       </c>
       <c r="Q15">
-        <v>1.408650099523333</v>
+        <v>0.07897432681750001</v>
       </c>
       <c r="R15">
-        <v>8.45190059714</v>
+        <v>0.4738459609050001</v>
       </c>
       <c r="S15">
-        <v>0.0003871301980664693</v>
+        <v>5.487842470335409E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003420572501355941</v>
+        <v>3.933198035362776E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H16">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I16">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J16">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01495533333333333</v>
+        <v>0.01597233333333333</v>
       </c>
       <c r="N16">
-        <v>0.044866</v>
+        <v>0.047917</v>
       </c>
       <c r="O16">
-        <v>0.001506485761004895</v>
+        <v>0.0034916150995138</v>
       </c>
       <c r="P16">
-        <v>0.001891535016121851</v>
+        <v>0.003698320415929645</v>
       </c>
       <c r="Q16">
-        <v>0.003474921551111111</v>
+        <v>0.001644538060555556</v>
       </c>
       <c r="R16">
-        <v>0.03127429396</v>
+        <v>0.014800842545</v>
       </c>
       <c r="S16">
-        <v>9.549902199292067E-07</v>
+        <v>1.142772110442346E-06</v>
       </c>
       <c r="T16">
-        <v>1.265703360911477E-06</v>
+        <v>1.228556316245124E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H17">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I17">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J17">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3105913333333333</v>
+        <v>0.1255626666666667</v>
       </c>
       <c r="N17">
-        <v>0.931774</v>
+        <v>0.376688</v>
       </c>
       <c r="O17">
-        <v>0.03128659259739168</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="P17">
-        <v>0.03928326902580845</v>
+        <v>0.02907345870642374</v>
       </c>
       <c r="Q17">
-        <v>17.97703506989067</v>
+        <v>1.748894831285334</v>
       </c>
       <c r="R17">
-        <v>107.862210419344</v>
+        <v>10.493368987712</v>
       </c>
       <c r="S17">
-        <v>0.004940512302955586</v>
+        <v>0.001215288527049651</v>
       </c>
       <c r="T17">
-        <v>0.004365296381037939</v>
+        <v>0.0008710108704520564</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H18">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I18">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J18">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.393572666666667</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N18">
         <v>10.180718</v>
       </c>
       <c r="O18">
-        <v>0.3418425244908446</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="P18">
-        <v>0.4292155437583476</v>
+        <v>0.7857661629113346</v>
       </c>
       <c r="Q18">
-        <v>196.4200809667014</v>
+        <v>47.26724793190532</v>
       </c>
       <c r="R18">
-        <v>1178.520485800208</v>
+        <v>283.603487591432</v>
       </c>
       <c r="S18">
-        <v>0.05398086073653203</v>
+        <v>0.03284551082733685</v>
       </c>
       <c r="T18">
-        <v>0.0476959557164804</v>
+        <v>0.02354074471978645</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H19">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I19">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J19">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1456443333333333</v>
+        <v>0.2723486666666667</v>
       </c>
       <c r="N19">
-        <v>0.436933</v>
+        <v>0.8170460000000001</v>
       </c>
       <c r="O19">
-        <v>0.01467109488283225</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="P19">
-        <v>0.01842094390405137</v>
+        <v>0.06306108275880487</v>
       </c>
       <c r="Q19">
-        <v>8.429898091374666</v>
+        <v>3.793398054417334</v>
       </c>
       <c r="R19">
-        <v>50.579388548248</v>
+        <v>22.760388326504</v>
       </c>
       <c r="S19">
-        <v>0.002316734382014623</v>
+        <v>0.002635992200101434</v>
       </c>
       <c r="T19">
-        <v>0.002047000714396463</v>
+        <v>0.001889245071941158</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H20">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I20">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J20">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.0625345</v>
+        <v>0.7670265000000001</v>
       </c>
       <c r="N20">
-        <v>12.125069</v>
+        <v>1.534053</v>
       </c>
       <c r="O20">
-        <v>0.6106933022679266</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="P20">
-        <v>0.5111887082956706</v>
+        <v>0.1184009752075072</v>
       </c>
       <c r="Q20">
-        <v>350.899666610966</v>
+        <v>10.683499458243</v>
       </c>
       <c r="R20">
-        <v>1403.598666443864</v>
+        <v>42.733997832972</v>
       </c>
       <c r="S20">
-        <v>0.09643548634435826</v>
+        <v>0.007423850816004616</v>
       </c>
       <c r="T20">
-        <v>0.05680510491335378</v>
+        <v>0.003547171236804965</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H21">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I21">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J21">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01495533333333333</v>
+        <v>0.01597233333333333</v>
       </c>
       <c r="N21">
-        <v>0.044866</v>
+        <v>0.047917</v>
       </c>
       <c r="O21">
-        <v>0.001506485761004895</v>
+        <v>0.0034916150995138</v>
       </c>
       <c r="P21">
-        <v>0.001891535016121851</v>
+        <v>0.003698320415929645</v>
       </c>
       <c r="Q21">
-        <v>0.8656151120826666</v>
+        <v>0.2224700378846667</v>
       </c>
       <c r="R21">
-        <v>5.193690672495999</v>
+        <v>1.334820227308</v>
       </c>
       <c r="S21">
-        <v>0.000237891403907391</v>
+        <v>0.0001545920771318388</v>
       </c>
       <c r="T21">
-        <v>0.0002101940893732259</v>
+        <v>0.0001107978695351357</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H22">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I22">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J22">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3105913333333333</v>
+        <v>0.1255626666666667</v>
       </c>
       <c r="N22">
-        <v>0.931774</v>
+        <v>0.376688</v>
       </c>
       <c r="O22">
-        <v>0.03128659259739168</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="P22">
-        <v>0.03928326902580845</v>
+        <v>0.02907345870642374</v>
       </c>
       <c r="Q22">
-        <v>0.03271903694911111</v>
+        <v>0.004268251728000001</v>
       </c>
       <c r="R22">
-        <v>0.294471332542</v>
+        <v>0.038414265552</v>
       </c>
       <c r="S22">
-        <v>8.991961352886482E-06</v>
+        <v>2.96596299720664E-06</v>
       </c>
       <c r="T22">
-        <v>1.191756257606305E-05</v>
+        <v>3.188608245398173E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H23">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I23">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J23">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.393572666666667</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N23">
         <v>10.180718</v>
       </c>
       <c r="O23">
-        <v>0.3418425244908446</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="P23">
-        <v>0.4292155437583476</v>
+        <v>0.7857661629113346</v>
       </c>
       <c r="Q23">
-        <v>0.3574936501882223</v>
+        <v>0.115357715658</v>
       </c>
       <c r="R23">
-        <v>3.217442851694</v>
+        <v>1.038219440922</v>
       </c>
       <c r="S23">
-        <v>9.824766821207264E-05</v>
+        <v>8.016085692402087E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001302132747149539</v>
+        <v>8.617827315675995E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H24">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I24">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J24">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1456443333333333</v>
+        <v>0.2723486666666667</v>
       </c>
       <c r="N24">
-        <v>0.436933</v>
+        <v>0.8170460000000001</v>
       </c>
       <c r="O24">
-        <v>0.01467109488283225</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="P24">
-        <v>0.01842094390405137</v>
+        <v>0.06306108275880487</v>
       </c>
       <c r="Q24">
-        <v>0.01534280519877778</v>
+        <v>0.009257948226000002</v>
       </c>
       <c r="R24">
-        <v>0.138085246789</v>
+        <v>0.083321534034</v>
       </c>
       <c r="S24">
-        <v>4.216563941256946E-06</v>
+        <v>6.433250337190714E-06</v>
       </c>
       <c r="T24">
-        <v>5.588454248612815E-06</v>
+        <v>6.916173630350835E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H25">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I25">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J25">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.0625345</v>
+        <v>0.7670265000000001</v>
       </c>
       <c r="N25">
-        <v>12.125069</v>
+        <v>1.534053</v>
       </c>
       <c r="O25">
-        <v>0.6106933022679266</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="P25">
-        <v>0.5111887082956706</v>
+        <v>0.1184009752075072</v>
       </c>
       <c r="Q25">
-        <v>0.6386536552128333</v>
+        <v>0.0260735318145</v>
       </c>
       <c r="R25">
-        <v>3.831921931277</v>
+        <v>0.156441190887</v>
       </c>
       <c r="S25">
-        <v>0.0001755170543217808</v>
+        <v>1.811822158027533E-05</v>
       </c>
       <c r="T25">
-        <v>0.000155081885249623</v>
+        <v>1.298553191149653E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H26">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I26">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J26">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.01495533333333333</v>
+        <v>0.01597233333333333</v>
       </c>
       <c r="N26">
-        <v>0.044866</v>
+        <v>0.047917</v>
       </c>
       <c r="O26">
-        <v>0.001506485761004895</v>
+        <v>0.0034916150995138</v>
       </c>
       <c r="P26">
-        <v>0.001891535016121851</v>
+        <v>0.003698320415929645</v>
       </c>
       <c r="Q26">
-        <v>0.001575459619777778</v>
+        <v>0.0005429475270000001</v>
       </c>
       <c r="R26">
-        <v>0.014179136578</v>
+        <v>0.004886527743</v>
       </c>
       <c r="S26">
-        <v>4.329733798738803E-07</v>
+        <v>3.772884958829337E-07</v>
       </c>
       <c r="T26">
-        <v>5.738444757394442E-07</v>
+        <v>4.05610322852717E-07</v>
       </c>
     </row>
   </sheetData>
